--- a/db/iot表说明.xlsx
+++ b/db/iot表说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\protocal framework\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864C8931-7D20-46D5-9D14-BDE3B4F6CBA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD453A7-6679-40BE-B346-41AE52EBB158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12345" yWindow="135" windowWidth="11775" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12225" yWindow="135" windowWidth="11775" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/db/iot表说明.xlsx
+++ b/db/iot表说明.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\protocal framework\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\protocalframework\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD453A7-6679-40BE-B346-41AE52EBB158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB6176C-5F19-4BDF-9FE7-0D29E54145CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12225" yWindow="135" windowWidth="11775" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11970" yWindow="105" windowWidth="11775" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>port表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,7 +139,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>modbus数据段长度</t>
+    <t>propertyid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minvalue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxvalue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>threshold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>property表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性名，关联port表name？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性对应地址，关联port表address？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性对应modbus数据长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联propertyid表，关联name值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,12 +251,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -183,8 +277,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -465,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -600,7 +695,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -628,6 +723,118 @@
       </c>
       <c r="C15" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/db/iot表说明.xlsx
+++ b/db/iot表说明.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\protocalframework\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB6176C-5F19-4BDF-9FE7-0D29E54145CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AEB59E-96C2-4585-A9B0-54EC4AC28C8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11970" yWindow="105" windowWidth="11775" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
   <si>
     <t>port表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,43 +191,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性名，关联port表name？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性对应地址，关联port表address？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性对应modbus数据长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联propertyid表，关联name值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>属性id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性名，关联port表name？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性对应地址，关联port表address？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性对应modbus数据长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联propertyid表，关联name值</t>
+  </si>
+  <si>
+    <t>node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nodegroupid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nodeid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联port表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -235,7 +298,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +308,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -277,9 +347,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -560,15 +631,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="41.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -695,7 +767,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -737,8 +809,8 @@
       <c r="B17" t="s">
         <v>40</v>
       </c>
-      <c r="C17" t="s">
-        <v>41</v>
+      <c r="C17" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -749,7 +821,7 @@
         <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -760,7 +832,7 @@
         <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -771,7 +843,7 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -782,7 +854,7 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -801,7 +873,7 @@
         <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -812,7 +884,7 @@
         <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -823,7 +895,7 @@
         <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -834,7 +906,103 @@
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/db/iot表说明.xlsx
+++ b/db/iot表说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\protocalframework\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AEB59E-96C2-4585-A9B0-54EC4AC28C8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AA3A5E-E051-4D68-B03B-899549F2B7E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11970" yWindow="105" windowWidth="11775" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10290" yWindow="165" windowWidth="14970" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
   <si>
     <t>port表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,17 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关联propertyid表，关联name值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性id</t>
-  </si>
-  <si>
-    <t>node</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,10 +259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>deviceid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nodeid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,8 +275,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关联port表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>读取的modbus地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>node表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nodeperperty表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nodeid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perpertyid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联node表，反查node的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联node表，根据node表的id查找相应的propertyid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于查询property属性值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性id，用于反查node表的nodeid</t>
   </si>
 </sst>
 </file>
@@ -631,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -651,136 +679,136 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -788,221 +816,254 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
       </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
         <v>40</v>
       </c>
-      <c r="C23" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
         <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
         <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s">
         <v>59</v>
-      </c>
-      <c r="B35" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="C37" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/db/iot表说明.xlsx
+++ b/db/iot表说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\protocalframework\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AA3A5E-E051-4D68-B03B-899549F2B7E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F95B35-85CB-4696-A634-B92FE9296DB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10290" yWindow="165" windowWidth="14970" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8025" yWindow="315" windowWidth="14970" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -320,6 +320,7 @@
   </si>
   <si>
     <t>属性id，用于反查node表的nodeid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -662,7 +663,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/db/iot表说明.xlsx
+++ b/db/iot表说明.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\protocalframework\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F95B35-85CB-4696-A634-B92FE9296DB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D2D436-046E-4F07-B62F-A019704D764B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8025" yWindow="315" windowWidth="14970" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>partiy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>flowcontrol</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -320,6 +316,10 @@
   </si>
   <si>
     <t>属性id，用于反查node表的nodeid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -663,7 +663,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
         <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -691,10 +691,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -702,10 +702,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -713,10 +713,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -724,10 +724,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -735,336 +735,336 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
         <v>40</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" t="s">
         <v>67</v>
       </c>
-      <c r="B42" t="s">
-        <v>68</v>
-      </c>
       <c r="C42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
